--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Dll4</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H2">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I2">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J2">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>154.2903128846185</v>
+        <v>178.0648861000395</v>
       </c>
       <c r="R2">
-        <v>154.2903128846185</v>
+        <v>712.2595444001579</v>
       </c>
       <c r="S2">
-        <v>0.02091377327073246</v>
+        <v>0.02140920587785413</v>
       </c>
       <c r="T2">
-        <v>0.02091377327073246</v>
+        <v>0.01615840897910847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H3">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I3">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J3">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>99.74753185205623</v>
+        <v>106.8123568262078</v>
       </c>
       <c r="R3">
-        <v>99.74753185205623</v>
+        <v>640.8741409572471</v>
       </c>
       <c r="S3">
-        <v>0.01352059780337017</v>
+        <v>0.01284232836510148</v>
       </c>
       <c r="T3">
-        <v>0.01352059780337017</v>
+        <v>0.01453895080120419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H4">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I4">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J4">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>307.5107333453843</v>
+        <v>2.482709592773999</v>
       </c>
       <c r="R4">
-        <v>307.5107333453843</v>
+        <v>14.896257556644</v>
       </c>
       <c r="S4">
-        <v>0.04168252455558521</v>
+        <v>0.000298502652436258</v>
       </c>
       <c r="T4">
-        <v>0.04168252455558521</v>
+        <v>0.0003379383593393591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H5">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I5">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J5">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>3569.942753331824</v>
+        <v>5.541997233972165</v>
       </c>
       <c r="R5">
-        <v>3569.942753331824</v>
+        <v>33.25198340383299</v>
       </c>
       <c r="S5">
-        <v>0.4838992930716862</v>
+        <v>0.000666328788091039</v>
       </c>
       <c r="T5">
-        <v>0.4838992930716862</v>
+        <v>0.0007543586483746693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.5057240376814</v>
+        <v>39.2808935</v>
       </c>
       <c r="H6">
-        <v>30.5057240376814</v>
+        <v>78.561787</v>
       </c>
       <c r="I6">
-        <v>0.439983811298626</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J6">
-        <v>0.439983811298626</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>121.2201384157332</v>
+        <v>597.154742177108</v>
       </c>
       <c r="R6">
-        <v>121.2201384157332</v>
+        <v>3582.928453062648</v>
       </c>
       <c r="S6">
-        <v>0.01643117084459673</v>
+        <v>0.07179747279889885</v>
       </c>
       <c r="T6">
-        <v>0.01643117084459673</v>
+        <v>0.08128276236189651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.5057240376814</v>
+        <v>39.2808935</v>
       </c>
       <c r="H7">
-        <v>30.5057240376814</v>
+        <v>78.561787</v>
       </c>
       <c r="I7">
-        <v>0.439983811298626</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J7">
-        <v>0.439983811298626</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>78.36791170924792</v>
+        <v>3626.65242806688</v>
       </c>
       <c r="R7">
-        <v>78.36791170924792</v>
+        <v>14506.60971226752</v>
       </c>
       <c r="S7">
-        <v>0.01062262890356341</v>
+        <v>0.4360418843964665</v>
       </c>
       <c r="T7">
-        <v>0.01062262890356341</v>
+        <v>0.3290987596783037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H8">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J8">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>241.599702298402</v>
+        <v>0.075296584409</v>
       </c>
       <c r="R8">
-        <v>241.599702298402</v>
+        <v>0.451779506454</v>
       </c>
       <c r="S8">
-        <v>0.03274840332927317</v>
+        <v>9.053104813746571E-06</v>
       </c>
       <c r="T8">
-        <v>0.03274840332927317</v>
+        <v>1.024912630663498E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.049831</v>
+      </c>
+      <c r="I9">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J9">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N9">
+        <v>8.157581</v>
+      </c>
+      <c r="O9">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P9">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q9">
+        <v>0.04516671320122223</v>
+      </c>
+      <c r="R9">
+        <v>0.406500418811</v>
+      </c>
+      <c r="S9">
+        <v>5.430511781012754E-06</v>
+      </c>
+      <c r="T9">
+        <v>9.221919269412826E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.049831</v>
+      </c>
+      <c r="I10">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J10">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.063204</v>
+      </c>
+      <c r="N10">
+        <v>0.189612</v>
+      </c>
+      <c r="O10">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P10">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q10">
+        <v>0.001049839508</v>
+      </c>
+      <c r="R10">
+        <v>0.009448555572</v>
+      </c>
+      <c r="S10">
+        <v>1.262249433773799E-07</v>
+      </c>
+      <c r="T10">
+        <v>2.14351111746473E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.049831</v>
+      </c>
+      <c r="I11">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J11">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P11">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q11">
+        <v>0.002343491025444444</v>
+      </c>
+      <c r="R11">
+        <v>0.021091419229</v>
+      </c>
+      <c r="S11">
+        <v>2.817640408252982E-07</v>
+      </c>
+      <c r="T11">
+        <v>4.784825707587093E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.049831</v>
+      </c>
+      <c r="I12">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J12">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.202168</v>
+      </c>
+      <c r="N12">
+        <v>45.606504</v>
+      </c>
+      <c r="O12">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P12">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q12">
+        <v>0.2525130778693334</v>
+      </c>
+      <c r="R12">
+        <v>2.272617700824</v>
+      </c>
+      <c r="S12">
+        <v>3.03603062308306E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.15568889905173E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>30.5057240376814</v>
-      </c>
-      <c r="H9">
-        <v>30.5057240376814</v>
-      </c>
-      <c r="I9">
-        <v>0.439983811298626</v>
-      </c>
-      <c r="J9">
-        <v>0.439983811298626</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>91.942441171791</v>
-      </c>
-      <c r="N9">
-        <v>91.942441171791</v>
-      </c>
-      <c r="O9">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="P9">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="Q9">
-        <v>2804.770737737413</v>
-      </c>
-      <c r="R9">
-        <v>2804.770737737413</v>
-      </c>
-      <c r="S9">
-        <v>0.3801816082211927</v>
-      </c>
-      <c r="T9">
-        <v>0.3801816082211927</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.049831</v>
+      </c>
+      <c r="I13">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J13">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N13">
+        <v>184.652237</v>
+      </c>
+      <c r="O13">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P13">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q13">
+        <v>1.533567603657834</v>
+      </c>
+      <c r="R13">
+        <v>9.201405621947</v>
+      </c>
+      <c r="S13">
+        <v>0.0001843848345028126</v>
+      </c>
+      <c r="T13">
+        <v>0.0002087442371127524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.018293</v>
+      </c>
+      <c r="H14">
+        <v>0.054879</v>
+      </c>
+      <c r="I14">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J14">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.533117</v>
+      </c>
+      <c r="N14">
+        <v>9.066234</v>
+      </c>
+      <c r="O14">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P14">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q14">
+        <v>0.082924309281</v>
+      </c>
+      <c r="R14">
+        <v>0.497545855686</v>
+      </c>
+      <c r="S14">
+        <v>9.970206078015654E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.128738742111981E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.018293</v>
+      </c>
+      <c r="H15">
+        <v>0.054879</v>
+      </c>
+      <c r="I15">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J15">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.157581</v>
+      </c>
+      <c r="O15">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P15">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q15">
+        <v>0.04974220974433334</v>
+      </c>
+      <c r="R15">
+        <v>0.447679887699</v>
+      </c>
+      <c r="S15">
+        <v>5.980635669165759E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.015612184355334E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.018293</v>
+      </c>
+      <c r="H16">
+        <v>0.054879</v>
+      </c>
+      <c r="I16">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J16">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.063204</v>
+      </c>
+      <c r="N16">
+        <v>0.189612</v>
+      </c>
+      <c r="O16">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P16">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q16">
+        <v>0.001156190772</v>
+      </c>
+      <c r="R16">
+        <v>0.010405716948</v>
+      </c>
+      <c r="S16">
+        <v>1.390118333488638E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.360653942633037E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.018293</v>
+      </c>
+      <c r="H17">
+        <v>0.054879</v>
+      </c>
+      <c r="I17">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J17">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P17">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q17">
+        <v>0.002580892295666666</v>
+      </c>
+      <c r="R17">
+        <v>0.02322803066099999</v>
+      </c>
+      <c r="S17">
+        <v>3.103074149917028E-07</v>
+      </c>
+      <c r="T17">
+        <v>5.269540045487188E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.018293</v>
+      </c>
+      <c r="H18">
+        <v>0.054879</v>
+      </c>
+      <c r="I18">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J18">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.202168</v>
+      </c>
+      <c r="N18">
+        <v>45.606504</v>
+      </c>
+      <c r="O18">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P18">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q18">
+        <v>0.278093259224</v>
+      </c>
+      <c r="R18">
+        <v>2.502839333016</v>
+      </c>
+      <c r="S18">
+        <v>3.343587818108712E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.677972569104771E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.018293</v>
+      </c>
+      <c r="H19">
+        <v>0.054879</v>
+      </c>
+      <c r="I19">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J19">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N19">
+        <v>184.652237</v>
+      </c>
+      <c r="O19">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P19">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q19">
+        <v>1.6889216857205</v>
+      </c>
+      <c r="R19">
+        <v>10.133530114323</v>
+      </c>
+      <c r="S19">
+        <v>0.0002030634611522918</v>
+      </c>
+      <c r="T19">
+        <v>0.0002298905297608063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J20">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.533117</v>
+      </c>
+      <c r="N20">
+        <v>9.066234</v>
+      </c>
+      <c r="O20">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P20">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q20">
+        <v>1.078717142749</v>
+      </c>
+      <c r="R20">
+        <v>6.472302856494</v>
+      </c>
+      <c r="S20">
+        <v>0.000129696976753233</v>
+      </c>
+      <c r="T20">
+        <v>0.0001468314709351599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J21">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.157581</v>
+      </c>
+      <c r="O21">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P21">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q21">
+        <v>0.6470692952967779</v>
+      </c>
+      <c r="R21">
+        <v>5.823623657671001</v>
+      </c>
+      <c r="S21">
+        <v>7.779882976177432E-05</v>
+      </c>
+      <c r="T21">
+        <v>0.0001321154536164314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J22">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.063204</v>
+      </c>
+      <c r="N22">
+        <v>0.189612</v>
+      </c>
+      <c r="O22">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P22">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q22">
+        <v>0.015040255588</v>
+      </c>
+      <c r="R22">
+        <v>0.135362300292</v>
+      </c>
+      <c r="S22">
+        <v>1.808329173659391E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.070846049964909E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J23">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P23">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q23">
+        <v>0.03357342119655556</v>
+      </c>
+      <c r="R23">
+        <v>0.302160790769</v>
+      </c>
+      <c r="S23">
+        <v>4.036620033088097E-06</v>
+      </c>
+      <c r="T23">
+        <v>6.854857436565707E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J24">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.202168</v>
+      </c>
+      <c r="N24">
+        <v>45.606504</v>
+      </c>
+      <c r="O24">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P24">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q24">
+        <v>3.617563638562667</v>
+      </c>
+      <c r="R24">
+        <v>32.558072747064</v>
+      </c>
+      <c r="S24">
+        <v>0.0004349491155191324</v>
+      </c>
+      <c r="T24">
+        <v>0.0007386165045519734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J25">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N25">
+        <v>184.652237</v>
+      </c>
+      <c r="O25">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P25">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q25">
+        <v>21.97026168736117</v>
+      </c>
+      <c r="R25">
+        <v>131.821570124167</v>
+      </c>
+      <c r="S25">
+        <v>0.002641541889346941</v>
+      </c>
+      <c r="T25">
+        <v>0.00299052060317192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H26">
+        <v>98.201284</v>
+      </c>
+      <c r="I26">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J26">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>148.385969974076</v>
+      </c>
+      <c r="R26">
+        <v>890.315819844456</v>
+      </c>
+      <c r="S26">
+        <v>0.0178408323512772</v>
+      </c>
+      <c r="T26">
+        <v>0.02019781588147404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H27">
+        <v>98.201284</v>
+      </c>
+      <c r="I27">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J27">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>89.00943650377823</v>
+      </c>
+      <c r="R27">
+        <v>801.084928534004</v>
+      </c>
+      <c r="S27">
+        <v>0.01070183680184181</v>
+      </c>
+      <c r="T27">
+        <v>0.01817351273706491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H28">
+        <v>98.201284</v>
+      </c>
+      <c r="I28">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J28">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>2.068904651312</v>
+      </c>
+      <c r="R28">
+        <v>18.620141861808</v>
+      </c>
+      <c r="S28">
+        <v>0.0002487498045892317</v>
+      </c>
+      <c r="T28">
+        <v>0.0004224188637661522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H29">
+        <v>98.201284</v>
+      </c>
+      <c r="I29">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J29">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>4.618286362728444</v>
+      </c>
+      <c r="R29">
+        <v>41.56457726455599</v>
+      </c>
+      <c r="S29">
+        <v>0.0005552686198164336</v>
+      </c>
+      <c r="T29">
+        <v>0.0009429391908676549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H30">
+        <v>98.201284</v>
+      </c>
+      <c r="I30">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J30">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>497.6241390612374</v>
+      </c>
+      <c r="R30">
+        <v>4478.617251551136</v>
+      </c>
+      <c r="S30">
+        <v>0.05983064868256236</v>
+      </c>
+      <c r="T30">
+        <v>0.101602470307926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H31">
+        <v>98.201284</v>
+      </c>
+      <c r="I31">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J31">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>3022.181127812052</v>
+      </c>
+      <c r="R31">
+        <v>18133.08676687231</v>
+      </c>
+      <c r="S31">
+        <v>0.3633647227288977</v>
+      </c>
+      <c r="T31">
+        <v>0.411369471053616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.045559</v>
+      </c>
+      <c r="H32">
+        <v>0.091118</v>
+      </c>
+      <c r="I32">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J32">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.533117</v>
+      </c>
+      <c r="N32">
+        <v>9.066234</v>
+      </c>
+      <c r="O32">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P32">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q32">
+        <v>0.206524277403</v>
+      </c>
+      <c r="R32">
+        <v>0.826097109612</v>
+      </c>
+      <c r="S32">
+        <v>2.483095275287351E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.874094220079802E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.045559</v>
+      </c>
+      <c r="H33">
+        <v>0.091118</v>
+      </c>
+      <c r="I33">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J33">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N33">
+        <v>8.157581</v>
+      </c>
+      <c r="O33">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P33">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q33">
+        <v>0.1238837442596667</v>
+      </c>
+      <c r="R33">
+        <v>0.7433024655580001</v>
+      </c>
+      <c r="S33">
+        <v>1.489486582034236E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.686265256547847E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.045559</v>
+      </c>
+      <c r="H34">
+        <v>0.091118</v>
+      </c>
+      <c r="I34">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J34">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.063204</v>
+      </c>
+      <c r="N34">
+        <v>0.189612</v>
+      </c>
+      <c r="O34">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P34">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q34">
+        <v>0.002879511036</v>
+      </c>
+      <c r="R34">
+        <v>0.017277066216</v>
+      </c>
+      <c r="S34">
+        <v>3.462111253233962E-07</v>
+      </c>
+      <c r="T34">
+        <v>3.919496819272164E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.045559</v>
+      </c>
+      <c r="H35">
+        <v>0.091118</v>
+      </c>
+      <c r="I35">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J35">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P35">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q35">
+        <v>0.006427752260333333</v>
+      </c>
+      <c r="R35">
+        <v>0.038566513562</v>
+      </c>
+      <c r="S35">
+        <v>7.728254260977961E-07</v>
+      </c>
+      <c r="T35">
+        <v>8.749247432801283E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.045559</v>
+      </c>
+      <c r="H36">
+        <v>0.091118</v>
+      </c>
+      <c r="I36">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J36">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.202168</v>
+      </c>
+      <c r="N36">
+        <v>45.606504</v>
+      </c>
+      <c r="O36">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P36">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q36">
+        <v>0.6925955719120001</v>
+      </c>
+      <c r="R36">
+        <v>4.155573431472</v>
+      </c>
+      <c r="S36">
+        <v>8.327257279025574E-05</v>
+      </c>
+      <c r="T36">
+        <v>9.427385786032702E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.045559</v>
+      </c>
+      <c r="H37">
+        <v>0.091118</v>
+      </c>
+      <c r="I37">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J37">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N37">
+        <v>184.652237</v>
+      </c>
+      <c r="O37">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P37">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q37">
+        <v>4.2062856327415</v>
+      </c>
+      <c r="R37">
+        <v>16.825142530966</v>
+      </c>
+      <c r="S37">
+        <v>0.0005057326970227553</v>
+      </c>
+      <c r="T37">
+        <v>0.000381697284767309</v>
       </c>
     </row>
   </sheetData>
